--- a/AppCustom/bin/Debug/Plumbing & Fire Protection Template.xlsx
+++ b/AppCustom/bin/Debug/Plumbing & Fire Protection Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\AppCustom\AppCustom\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4ECD4DC-FB8A-4911-8447-CEB94422A414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B74493C-2B4A-4938-A6C8-58DBD393A592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="3105" windowWidth="21600" windowHeight="11385" xr2:uid="{218D3890-D48C-4632-BB9C-F5EA0C6FFFEE}"/>
+    <workbookView xWindow="1005" yWindow="3105" windowWidth="21600" windowHeight="11385" xr2:uid="{779BD06D-09ED-4DA3-96A1-7D5FC14FAA02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Pipe Type</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Thermal</t>
+  </si>
+  <si>
+    <t>ỐNG PVC-NƯỚC MƯA-MẶT BẰNG</t>
   </si>
 </sst>
 </file>
@@ -411,8 +414,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3801B1-D377-4935-AF69-7600F1431E91}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66907CC4-9661-4A79-9199-5B99AA62684D}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,6 +501,26 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
